--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3270.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3270.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.123837903979112</v>
+        <v>1.920312643051147</v>
       </c>
       <c r="B1">
-        <v>1.637335206870408</v>
+        <v>3.730503082275391</v>
       </c>
       <c r="C1">
-        <v>3.247886433348615</v>
+        <v>1.947177886962891</v>
       </c>
       <c r="D1">
-        <v>4.802515384415637</v>
+        <v>1.457335948944092</v>
       </c>
       <c r="E1">
-        <v>1.270390057222517</v>
+        <v>1.29633641242981</v>
       </c>
     </row>
   </sheetData>
